--- a/src/test/resources/testdata/testDataSheet.xlsx
+++ b/src/test/resources/testdata/testDataSheet.xlsx
@@ -1,48 +1,317 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium_Workspace\AynaxAutomationTest\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SearchTestData" sheetId="5" r:id="rId1"/>
-    <sheet name="HomeTestData" sheetId="1" r:id="rId2"/>
-    <sheet name="LoginTestData" sheetId="2" r:id="rId3"/>
-    <sheet name="DahsboradTestData" sheetId="3" r:id="rId4"/>
-    <sheet name="ProfileTestData" sheetId="4" r:id="rId5"/>
+    <sheet name="VendorData" sheetId="5" r:id="rId1"/>
+    <sheet name="Customer" sheetId="15" r:id="rId2"/>
+    <sheet name="EditExpense" sheetId="14" r:id="rId3"/>
+    <sheet name="ProjData" sheetId="10" r:id="rId4"/>
+    <sheet name="CustomerData" sheetId="13" r:id="rId5"/>
+    <sheet name="Journal" sheetId="11" r:id="rId6"/>
+    <sheet name="EditVendorData" sheetId="6" r:id="rId7"/>
+    <sheet name="EditAccountData" sheetId="9" r:id="rId8"/>
+    <sheet name="Account" sheetId="8" r:id="rId9"/>
+    <sheet name="Invoice" sheetId="7" r:id="rId10"/>
+    <sheet name="HomeTestData" sheetId="1" r:id="rId11"/>
+    <sheet name="LoginTestData" sheetId="2" r:id="rId12"/>
+    <sheet name="DahsboradTestData" sheetId="3" r:id="rId13"/>
+    <sheet name="ProfileTestData" sheetId="4" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TC_ID</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>jobTitle</t>
-  </si>
-  <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCaseDescription </t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>createCustomer</t>
+  </si>
+  <si>
+    <t>testaynax@gmail.com</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>vendorname</t>
+  </si>
+  <si>
+    <t>vendorAddress</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Hebbal,Bangalore</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Verifying Vendor details</t>
+  </si>
+  <si>
+    <t>ITPL, bangalore</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Whitfield, Bangalore</t>
+  </si>
+  <si>
+    <t>Fromname</t>
+  </si>
+  <si>
+    <t>FromAddress</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>invnotes</t>
+  </si>
+  <si>
+    <t>Itemquanity</t>
+  </si>
+  <si>
+    <t>Unitprice</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Custname</t>
+  </si>
+  <si>
+    <t>TestCust</t>
+  </si>
+  <si>
+    <t>ITPL</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>StartBalance</t>
+  </si>
+  <si>
+    <t>TestCust1</t>
+  </si>
+  <si>
+    <t>StartingBalance</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>TestVendor</t>
+  </si>
+  <si>
+    <t>projectname</t>
+  </si>
+  <si>
+    <t>Verifying Project details</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Account1</t>
+  </si>
+  <si>
+    <t>Account2</t>
+  </si>
+  <si>
+    <t>EditVendor1</t>
+  </si>
+  <si>
+    <t>EdtVendor2</t>
+  </si>
+  <si>
+    <t>Vendor1</t>
+  </si>
+  <si>
+    <t>Vendor2</t>
+  </si>
+  <si>
+    <t>EditAccount1</t>
+  </si>
+  <si>
+    <t>EditAccount2</t>
+  </si>
+  <si>
+    <t>Vendor3</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>InvoiceTest1</t>
+  </si>
+  <si>
+    <t>InvoiceTest2</t>
+  </si>
+  <si>
+    <t>Successful added all the values</t>
+  </si>
+  <si>
+    <t>Verifying customer details</t>
+  </si>
+  <si>
+    <t>Customername</t>
+  </si>
+  <si>
+    <t>Customer1</t>
+  </si>
+  <si>
+    <t>Customer2</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Project2</t>
+  </si>
+  <si>
+    <t>Customer1234</t>
+  </si>
+  <si>
+    <t>Project2134e</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Suvccess</t>
+  </si>
+  <si>
+    <t>Precondition: All the expense and all the vendors should be deleted before executing this test case</t>
+  </si>
+  <si>
+    <t>Successfully entered all the data</t>
+  </si>
+  <si>
+    <t>Banaswadi, Bangalore</t>
+  </si>
+  <si>
+    <t>Martahalli</t>
+  </si>
+  <si>
+    <t>Hello customer TestCust</t>
+  </si>
+  <si>
+    <t>Hello customer TestCust1</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>F Customer1</t>
+  </si>
+  <si>
+    <t>F Customer2</t>
+  </si>
+  <si>
+    <t>L customer1</t>
+  </si>
+  <si>
+    <t>L customer2</t>
+  </si>
+  <si>
+    <t>Fcustomer1@gmail.com</t>
+  </si>
+  <si>
+    <t>Fcustomer2@gmail.com</t>
+  </si>
+  <si>
+    <t>Verifying Customer details</t>
+  </si>
+  <si>
+    <t>Entering Empty Amount value. This is failure case</t>
+  </si>
+  <si>
+    <t>Verifying Expense details</t>
+  </si>
+  <si>
+    <t>Verifying Journal details</t>
+  </si>
+  <si>
+    <t>Verifying Account details</t>
+  </si>
+  <si>
+    <t>Verifying Invoice details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,16 +327,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,15 +366,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -91,6 +402,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -139,7 +453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,7 +488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,49 +697,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -433,7 +795,189 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -445,40 +989,573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>64646</v>
+      </c>
+      <c r="F2">
+        <v>45453</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>67567</v>
+      </c>
+      <c r="F3">
+        <v>355335</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3">
+        <v>5454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>3213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>3242</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>234</v>
+      </c>
+      <c r="D2">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>654</v>
+      </c>
+      <c r="D3">
+        <v>456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>2343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>